--- a/src/analysis_examples/circadb/results_jtk/cosinor_10474181_abtb2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10474181_abtb2_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23415214756187497, 0.36609669858792626]</t>
+          <t>[0.23370069772719876, 0.36654814842260247]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.06883446327322e-09</v>
+        <v>5.698069349691082e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>5.06883446327322e-09</v>
+        <v>5.698069349691082e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3396316382259235</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.5660527303765397, -0.11321054607530723]</t>
+          <t>[-0.5786316799404627, -0.1006315965113842]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.00518556432095596</v>
+        <v>0.007555067759787537</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00518556432095596</v>
+        <v>0.007555067759787537</v>
       </c>
       <c r="S2" t="n">
         <v>0.3758685665691284</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.33906248422813495, 0.4126746489101218]</t>
+          <t>[0.33910799412589343, 0.4126291390123633]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>1.333513513513552</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4445045045045144</v>
+        <v>0.3951151151151238</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.222522522522589</v>
+        <v>2.271911911911979</v>
       </c>
     </row>
   </sheetData>
